--- a/results/VR_GAME_POWER_CORRECTED_my4.xlsx
+++ b/results/VR_GAME_POWER_CORRECTED_my4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12816" windowHeight="8196" tabRatio="405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12816" windowHeight="8196" tabRatio="405" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="40">
   <si>
     <t>1_4_10</t>
   </si>
@@ -116,43 +116,28 @@
     <t>Addressing Access Points</t>
   </si>
   <si>
-    <t>Headset A - Fog - Original</t>
+    <t>My Experiment</t>
   </si>
   <si>
-    <t>Headset B - Fog - Original</t>
+    <t xml:space="preserve">Оригінальні </t>
   </si>
   <si>
-    <t>Headset A - Cloud - Original</t>
+    <t>Addressing Access Point</t>
   </si>
   <si>
-    <t>Headset B - Cloud - Original</t>
+    <t>Access Point</t>
   </si>
   <si>
-    <t>Headset A - Fog - Access Point</t>
+    <t>Тип А Туман.</t>
   </si>
   <si>
-    <t>Headset B - Fog - Access Point</t>
+    <t>Тип Б Туман.</t>
   </si>
   <si>
-    <t>Headset A - Cloud - Access Point</t>
+    <t>Тип А Хмар.</t>
   </si>
   <si>
-    <t>Headset B - Cloud - Access Point</t>
-  </si>
-  <si>
-    <t>Headset A - Fog - Addressing Access Point</t>
-  </si>
-  <si>
-    <t>Headset B - Fog - Addressing Access Point</t>
-  </si>
-  <si>
-    <t>Headset A - Cloud - Addressing Access Point</t>
-  </si>
-  <si>
-    <t>Headset B - Cloud - Addressing Access Point</t>
-  </si>
-  <si>
-    <t>My Experiment</t>
+    <t>Тип Б Хмар.</t>
   </si>
 </sst>
 </file>
@@ -333,6 +318,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -620,11 +606,11 @@
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="124826752"/>
-        <c:axId val="124829056"/>
+        <c:axId val="131511424"/>
+        <c:axId val="131513728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124826752"/>
+        <c:axId val="131511424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -647,6 +633,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -666,14 +653,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124829056"/>
+        <c:crossAx val="131513728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124829056"/>
+        <c:axId val="131513728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,6 +692,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
@@ -725,7 +713,1314 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124826752"/>
+        <c:crossAx val="131511424"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="uk-UA" sz="1000"/>
+              <a:t>Серія</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="uk-UA" sz="1000" baseline="0"/>
+              <a:t> 4</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38912107966835008"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22883123270937714"/>
+          <c:y val="9.1699567587892675E-2"/>
+          <c:w val="0.74474162257495913"/>
+          <c:h val="0.69928369994359862"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>execTime!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Тип А Туман.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>execTime!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$N$9:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.657</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5310000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>execTime!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Тип Б Туман.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>execTime!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$O$9:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.69299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2030000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.920999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68.498999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>execTime!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Тип А Хмар.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>execTime!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$P$9:$P$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.544</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.118000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>execTime!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Тип Б Хмар.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>execTime!$A$9:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$Q$9:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95.694999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="166283520"/>
+        <c:axId val="166320000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="166283520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1000"/>
+                  <a:t>№ конфігурації топології</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166320000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="166320000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="uk-UA" sz="1000"/>
+                  <a:t>Час виконання (с)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.8867138043203152E-3"/>
+              <c:y val="0.24209043965727337"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="166283520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19609311870364568"/>
+          <c:y val="0.12553675502914083"/>
+          <c:w val="0.58332380817395757"/>
+          <c:h val="0.44615529234818563"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr sz="1400">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Average Network Usage (new)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nwUsage!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>nwUsage!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nwUsage!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.3052000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6204000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.250799999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.511600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.033199999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nwUsage!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF420E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>nwUsage!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nwUsage!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8.8003999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.630650000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.244099999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.567149999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126.18989609374999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nwUsage!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFD320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>nwUsage!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nwUsage!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39.832800000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.698050000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>181.96345000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>412.61869999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>706.57815000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>nwUsage!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579D1C"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>nwUsage!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>nwUsage!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.953999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>165.64714999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>363.05020000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>707.31484999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1295.19705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="130918272"/>
+        <c:axId val="130920448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="130918272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1200">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Physical Topology Configurations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130920448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="130920448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="1200">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Network Usage (in KiloBytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="130918272"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Latency (old)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delay!$B$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>delay!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24.226846496106901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.372053050398399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.1994448547382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.668924516495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.979312632717399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delay!$C$1:$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF420E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>delay!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31.3287789953039</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.5025036657381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.126406238938301</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.5119245497953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.716731879583399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delay!$D$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFD320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>delay!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>230.894682656686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>230.54714821379201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230.59963184775299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>905.61337377555401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4054.8682879942098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delay!$E$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579D1C"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>delay!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>225.157024055157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225.281648386786</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>225.56183776645801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2950.6711365475699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4574.1589833596599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="131951232"/>
+        <c:axId val="131965312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="131951232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131965312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="131965312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131951232"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -769,15 +2064,16 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
+  <c:style val="1"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -786,14 +2082,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US"/>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Average Network Usage (new)</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Latency (new)</a:t>
             </a:r>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -808,11 +2103,334 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>nwUsage!$H$1</c:f>
+              <c:f>delay!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Headset A – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>delay!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23.737580490555501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.286715721865999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.111829106410699</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.772051146268801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.0581955309232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delay!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Fog</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>delay!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31.975317660232101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.279843791437997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.074130988169998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.510245199121599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.549403037660497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delay!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset A – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>delay!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>231.235214377673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>231.33344285408899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>231.182343770724</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>903.30484006678296</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4052.1281709703499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>delay!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Headset B – Cloud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>delay!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Config 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Config 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Config 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Config 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>delay!$K$2:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>225.895527138402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>226.05087363352601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226.180016079773</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2993.4148283607701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4580.4153499016202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="131994752"/>
+        <c:axId val="131996288"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="131994752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131996288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="131996288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="131994752"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Energy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> consumption (old)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>energy!$D$4:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DC Energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -827,47 +2445,41 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>nwUsage!$A$2:$A$6</c:f>
+              <c:f>energy!$E$3:$H$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Config 1</c:v>
+                  <c:v>Headset A – Fog</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Config 2</c:v>
+                  <c:v>Headset A – Cloud</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Config 3</c:v>
+                  <c:v>Headset B – Fog</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
+                  <c:v>Headset B – Cloud</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nwUsage!$H$2:$H$6</c:f>
+              <c:f>energy!$E$4:$H$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00E+000</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.3052000000000001</c:v>
+                  <c:v>13355148.2285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6204000000000001</c:v>
+                  <c:v>14688111.9782867</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.250799999999998</c:v>
+                  <c:v>13354484.6285714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.511600000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70.033199999999994</c:v>
+                  <c:v>14688488.2383644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -878,11 +2490,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>nwUsage!$I$1</c:f>
+              <c:f>energy!$D$5:$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset B – Fog</c:v>
+                  <c:v>Mobile Energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -897,47 +2509,41 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>nwUsage!$A$2:$A$6</c:f>
+              <c:f>energy!$E$3:$H$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Config 1</c:v>
+                  <c:v>Headset A – Fog</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Config 2</c:v>
+                  <c:v>Headset A – Cloud</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Config 3</c:v>
+                  <c:v>Headset B – Fog</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
+                  <c:v>Headset B – Cloud</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nwUsage!$I$2:$I$6</c:f>
+              <c:f>energy!$E$5:$H$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00E+000</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>8.8003999999999998</c:v>
+                  <c:v>13968155.4611999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.630650000000003</c:v>
+                  <c:v>13985930.8113726</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.244099999999996</c:v>
+                  <c:v>13992315.675559999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63.567149999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>126.18989609374999</c:v>
+                  <c:v>13983132.9557152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,11 +2554,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>nwUsage!$J$1</c:f>
+              <c:f>energy!$D$6:$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset A – Cloud</c:v>
+                  <c:v>Edge Energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -967,151 +2573,56 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>nwUsage!$A$2:$A$6</c:f>
+              <c:f>energy!$E$3:$H$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Config 1</c:v>
+                  <c:v>Headset A – Fog</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Config 2</c:v>
+                  <c:v>Headset A – Cloud</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Config 3</c:v>
+                  <c:v>Headset B – Fog</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
+                  <c:v>Headset B – Cloud</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nwUsage!$J$2:$J$6</c:f>
+              <c:f>energy!$E$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>39.832800000000006</c:v>
+                  <c:v>3337331.9999999902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.698050000000009</c:v>
+                  <c:v>3337331.9999999902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>181.96345000000002</c:v>
+                  <c:v>4292642.3626300599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>412.61869999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>706.57815000000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>nwUsage!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579D1C"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>nwUsage!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>nwUsage!$K$2:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>78.953999999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>165.64714999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>363.05020000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>707.31484999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1295.19705</c:v>
+                  <c:v>3337331.9999999902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="124753792"/>
-        <c:axId val="124755968"/>
+        <c:axId val="132093440"/>
+        <c:axId val="132094976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124753792"/>
+        <c:axId val="132093440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="1200">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Physical Topology Configurations</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -1130,14 +2641,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124755968"/>
+        <c:crossAx val="132094976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124755968"/>
+        <c:axId val="132094976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,26 +2662,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="1200">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Network Usage (in KiloBytes)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -1189,7 +2681,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124753792"/>
+        <c:crossAx val="132093440"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,7 +2731,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
@@ -1254,7 +2746,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Average Latency (old)</a:t>
+              <a:t>Energy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> consumption (new)</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -1271,11 +2767,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>delay!$B$1:$B$1</c:f>
+              <c:f>energy!$D$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
+                  <c:v>DC Energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1290,47 +2786,41 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>delay!$A$2:$A$6</c:f>
+              <c:f>energy!$J$3:$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Config 1</c:v>
+                  <c:v>Headset A – Fog</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Config 2</c:v>
+                  <c:v>Headset A – Cloud</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Config 3</c:v>
+                  <c:v>Headset B – Fog</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
+                  <c:v>Headset B – Cloud</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>delay!$B$2:$B$6</c:f>
+              <c:f>energy!$J$4:$M$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>24.226846496106901</c:v>
+                  <c:v>13332902.514286101</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.372053050398399</c:v>
+                  <c:v>14388138.8750004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24.1994448547382</c:v>
+                  <c:v>13332658.914286001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.668924516495</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.979312632717399</c:v>
+                  <c:v>14425835.1443581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,11 +2831,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>delay!$C$1:$C$1</c:f>
+              <c:f>energy!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset B – Fog</c:v>
+                  <c:v>Mobile Energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1360,47 +2850,41 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>delay!$A$2:$A$6</c:f>
+              <c:f>energy!$J$3:$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Config 1</c:v>
+                  <c:v>Headset A – Fog</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Config 2</c:v>
+                  <c:v>Headset A – Cloud</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Config 3</c:v>
+                  <c:v>Headset B – Fog</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
+                  <c:v>Headset B – Cloud</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>delay!$C$2:$C$6</c:f>
+              <c:f>energy!$J$5:$M$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>31.3287789953039</c:v>
+                  <c:v>13966656.099899899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.5025036657381</c:v>
+                  <c:v>13990168.079218799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.126406238938301</c:v>
+                  <c:v>13986499.933180099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.5119245497953</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.716731879583399</c:v>
+                  <c:v>13995580.9194676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1411,11 +2895,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>delay!$D$1:$D$1</c:f>
+              <c:f>energy!$D$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset A – Cloud</c:v>
+                  <c:v>Edge Energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1430,132 +2914,57 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>delay!$A$2:$A$6</c:f>
+              <c:f>energy!$J$3:$M$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>Config 1</c:v>
+                  <c:v>Headset A – Fog</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Config 2</c:v>
+                  <c:v>Headset A – Cloud</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Config 3</c:v>
+                  <c:v>Headset B – Fog</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
+                  <c:v>Headset B – Cloud</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>delay!$D$2:$D$6</c:f>
+              <c:f>energy!$J$6:$M$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>230.894682656686</c:v>
+                  <c:v>3337331.9999999902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>230.54714821379201</c:v>
+                  <c:v>3337331.9999999902</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>230.59963184775299</c:v>
+                  <c:v>4292553.5700300299</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>905.61337377555401</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4054.8682879942098</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>delay!$E$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579D1C"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>delay!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>delay!$E$2:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>225.157024055157</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>225.281648386786</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>225.56183776645801</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2950.6711365475699</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4574.1589833596599</c:v>
+                  <c:v>3337331.9999999902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="125794944"/>
-        <c:axId val="125804928"/>
+        <c:axId val="132120960"/>
+        <c:axId val="132122496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="125794944"/>
+        <c:axId val="132120960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00E+000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln>
@@ -1574,14 +2983,14 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="125804928"/>
+        <c:crossAx val="132122496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="125804928"/>
+        <c:axId val="132122496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1595,26 +3004,9 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="125794944"/>
+        <c:crossAx val="132120960"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1664,9 +3056,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
+  <c:style val="1"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1678,1116 +3071,21 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average Latency (new)</a:t>
+              <a:rPr lang="uk-UA" sz="1000"/>
+              <a:t>Серія 1</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU" sz="1000"/>
           </a:p>
         </c:rich>
       </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>delay!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>delay!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>delay!$H$2:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>23.737580490555501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24.286715721865999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24.111829106410699</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.772051146268801</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.0581955309232</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>delay!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset B – Fog</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF420E"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>delay!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>delay!$I$2:$I$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>31.975317660232101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.279843791437997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>32.074130988169998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>32.510245199121599</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32.549403037660497</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>delay!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFD320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>delay!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>delay!$J$2:$J$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>231.235214377673</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>231.33344285408899</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>231.182343770724</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>903.30484006678296</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4052.1281709703499</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>delay!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579D1C"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>delay!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>delay!$K$2:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>225.895527138402</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>226.05087363352601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>226.180016079773</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2993.4148283607701</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4580.4153499016202</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="125913344"/>
-        <c:axId val="125923328"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="125913344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="125923328"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="125923328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="125913344"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Energy</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> consumption (old)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>energy!$D$4:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DC Energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>energy!$E$3:$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Headset A – Cloud</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Headset B – Fog</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>energy!$E$4:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>13355148.2285714</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14688111.9782867</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13354484.6285714</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14688488.2383644</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>energy!$D$5:$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mobile Energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF420E"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>energy!$E$3:$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Headset A – Cloud</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Headset B – Fog</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>energy!$E$5:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+000</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>13968155.4611999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13985930.8113726</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13992315.675559999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13983132.9557152</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>energy!$D$6:$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Edge Energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFD320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>energy!$E$3:$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Headset A – Cloud</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Headset B – Fog</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>energy!$E$6:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3337331.9999999902</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3337331.9999999902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4292642.3626300599</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3337331.9999999902</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="125863424"/>
-        <c:axId val="125864960"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="125863424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="125864960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="125864960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+000" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="125863424"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Energy</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> consumption (new)</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>energy!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DC Energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>energy!$J$3:$M$3</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Headset A – Cloud</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Headset B – Fog</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>energy!$J$4:$M$4</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>13332902.514286101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14388138.8750004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13332658.914286001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14425835.1443581</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>energy!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mobile Energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FF420E"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>energy!$J$3:$M$3</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Headset A – Cloud</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Headset B – Fog</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>energy!$J$5:$M$5</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>13966656.099899899</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13990168.079218799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13986499.933180099</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13995580.9194676</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>energy!$D$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Edge Energy</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FFD320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>energy!$J$3:$M$3</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Headset A – Fog</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Headset A – Cloud</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Headset B – Fog</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Headset B – Cloud</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>energy!$J$6:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3337331.9999999902</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3337331.9999999902</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4292553.5700300299</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3337331.9999999902</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="125972864"/>
-        <c:axId val="125974400"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="125972864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.00E+000" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="125974400"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="125974400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125972864"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Original</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Execution</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Time</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38912107966834936"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -2795,10 +3093,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15722893709759203"/>
-          <c:y val="0.18659877173055078"/>
-          <c:w val="0.8163436070133262"/>
-          <c:h val="0.62992323138181094"/>
+          <c:x val="0.2288311287477954"/>
+          <c:y val="0.11557616022429019"/>
+          <c:w val="0.74474162257495635"/>
+          <c:h val="0.68734544520948948"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2812,54 +3110,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset A - Fog - Original</c:v>
+                  <c:v>Тип А Туман.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>execTime!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>execTime!$B$2:$B$6</c:f>
+              <c:f>execTime!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>171</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>328</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>689</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1579</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3606</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$B$9:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6059999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2874,54 +3173,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset B - Fog - Original</c:v>
+                  <c:v>Тип Б Туман.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>execTime!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>execTime!$C$2:$C$6</c:f>
+              <c:f>execTime!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>253</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>683</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1445</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3068</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8320</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$C$9:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2936,54 +3236,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset A - Cloud - Original</c:v>
+                  <c:v>Тип А Хмар.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>execTime!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>execTime!$D$2:$D$6</c:f>
+              <c:f>execTime!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>199</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>438</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1236</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4506</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10025</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.19900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.438</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.025</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2998,65 +3299,66 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset B - Cloud - Original</c:v>
+                  <c:v>Тип Б Хмар.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>execTime!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>execTime!$E$2:$E$6</c:f>
+              <c:f>execTime!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>413</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>977</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3154</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7720</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23545</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$E$9:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.545000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="126016512"/>
-        <c:axId val="126092416"/>
+        <c:axId val="103829888"/>
+        <c:axId val="104347520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126016512"/>
+        <c:axId val="103829888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3068,25 +3370,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Physical Topology Configurations</a:t>
+                  <a:rPr lang="ru-RU" sz="1000"/>
+                  <a:t>№ конфігурації топології</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126092416"/>
+        <c:crossAx val="104347520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126092416"/>
+        <c:axId val="104347520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,16 +3406,25 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Execution time (ms)</a:t>
+                  <a:rPr lang="uk-UA" sz="1000"/>
+                  <a:t>Час виконання (с)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1000"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.8867138043203061E-3"/>
+              <c:y val="0.2420904396572727"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126016512"/>
+        <c:crossAx val="103829888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3122,15 +3435,28 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14282202651303416"/>
-          <c:y val="0.18231235422135914"/>
-          <c:w val="0.46518666509969858"/>
-          <c:h val="0.50696108259244443"/>
+          <c:x val="0.1960930760241483"/>
+          <c:y val="0.11956755881645309"/>
+          <c:w val="0.58332380817395779"/>
+          <c:h val="0.5416751893685583"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
@@ -3142,6 +3468,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
+  <c:style val="1"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3153,13 +3480,21 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Access Point Execution Time</a:t>
+              <a:rPr lang="uk-UA" sz="1000"/>
+              <a:t>Серія 2</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0"/>
+            <a:endParaRPr lang="ru-RU" sz="1000"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38912107966834986"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -3167,10 +3502,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15722893709759214"/>
-          <c:y val="0.18659877173055078"/>
-          <c:w val="0.81634360701332642"/>
-          <c:h val="0.62992323138181128"/>
+          <c:x val="0.22883123270937702"/>
+          <c:y val="9.1699567587892536E-2"/>
+          <c:w val="0.74474162257495813"/>
+          <c:h val="0.69928369994359862"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3184,54 +3519,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset A - Fog - Access Point</c:v>
+                  <c:v>Тип А Туман.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>execTime!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>execTime!$F$2:$F$6</c:f>
+              <c:f>execTime!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>265</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>514</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1078</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2449</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5830</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$F$9:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3246,54 +3582,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset B - Fog - Access Point</c:v>
+                  <c:v>Тип Б Туман.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>execTime!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>execTime!$G$2:$G$6</c:f>
+              <c:f>execTime!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>496</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1072</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2431</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6191</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15706</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$G$9:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.431</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.1909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.706</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3308,54 +3645,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset A - Cloud - Access Point</c:v>
+                  <c:v>Тип А Хмар.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>execTime!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>execTime!$H$2:$H$6</c:f>
+              <c:f>execTime!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>354</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>861</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2904</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10889</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21714</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$H$9:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.35399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.888999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.713999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3370,65 +3708,66 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset B - Cloud - Access Point</c:v>
+                  <c:v>Тип Б Хмар.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>execTime!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>execTime!$I$2:$I$6</c:f>
+              <c:f>execTime!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>620</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1755</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6263</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15034</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>34647</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$I$9:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.034000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.646999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="126131584"/>
-        <c:axId val="126146048"/>
+        <c:axId val="108083840"/>
+        <c:axId val="109422848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126131584"/>
+        <c:axId val="108083840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3440,25 +3779,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Physical Topology Configurations</a:t>
+                  <a:rPr lang="ru-RU" sz="1000"/>
+                  <a:t>№ конфігурації топології</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126146048"/>
+        <c:crossAx val="109422848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126146048"/>
+        <c:axId val="109422848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3474,16 +3815,25 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Execution time (ms)</a:t>
+                  <a:rPr lang="uk-UA" sz="1000"/>
+                  <a:t>Час виконання (с)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1000"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.8867138043203117E-3"/>
+              <c:y val="0.24209043965727312"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126131584"/>
+        <c:crossAx val="108083840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3494,18 +3844,31 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1543295760354467"/>
-          <c:y val="0.26364951642967976"/>
-          <c:w val="0.46518666509969886"/>
-          <c:h val="0.31717437077302951"/>
+          <c:x val="0.19609311870364574"/>
+          <c:y val="0.12553675502914083"/>
+          <c:w val="0.58332380817395757"/>
+          <c:h val="0.44615529234818563"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3514,6 +3877,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
+  <c:style val="1"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -3525,13 +3889,21 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Addressing Access Point Execution Time</a:t>
+              <a:rPr lang="uk-UA" sz="1000"/>
+              <a:t>Серія 3</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0"/>
+            <a:endParaRPr lang="ru-RU" sz="1000"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38912107966834997"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -3539,10 +3911,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15722893709759225"/>
-          <c:y val="0.18659877173055078"/>
-          <c:w val="0.81634360701332664"/>
-          <c:h val="0.62992323138181172"/>
+          <c:x val="0.22883123270937708"/>
+          <c:y val="9.1699567587892605E-2"/>
+          <c:w val="0.74474162257495857"/>
+          <c:h val="0.69928369994359862"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3556,54 +3928,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset A - Fog - Addressing Access Point</c:v>
+                  <c:v>Тип А Туман.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>execTime!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>execTime!$J$2:$J$6</c:f>
+              <c:f>execTime!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>266</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>578</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1220</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2949</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7613</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$J$9:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6130000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3618,54 +3991,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset B - Fog - Addressing Access Point</c:v>
+                  <c:v>Тип Б Туман.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>execTime!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>execTime!$K$2:$K$6</c:f>
+              <c:f>execTime!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>637</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1617</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4555</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12632</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43174</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$K$9:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.617</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5549999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.632</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.173999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3680,54 +4054,55 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset A - Cloud - Addressing Access Point</c:v>
+                  <c:v>Тип А Хмар.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>execTime!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>execTime!$L$2:$L$6</c:f>
+              <c:f>execTime!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>523</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1345</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3722</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12037</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45493</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$L$9:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.722</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.037000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.493000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3742,65 +4117,66 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Headset B - Cloud - Addressing Access Point</c:v>
+                  <c:v>Тип Б Хмар.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>execTime!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>Config 1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Config 2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Config 3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Config 4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Config 5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
             <c:numRef>
-              <c:f>execTime!$M$2:$M$6</c:f>
+              <c:f>execTime!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1004</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2681</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8072</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26623</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96924</c:v>
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>execTime!$M$9:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.681</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0719999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.623000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.924000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="126177280"/>
-        <c:axId val="126179200"/>
+        <c:axId val="166823040"/>
+        <c:axId val="166934784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126177280"/>
+        <c:axId val="166823040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3812,25 +4188,27 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Physical Topology Configurations</a:t>
+                  <a:rPr lang="ru-RU" sz="1000"/>
+                  <a:t>№ конфігурації топології</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126179200"/>
+        <c:crossAx val="166934784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126179200"/>
+        <c:axId val="166934784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3846,16 +4224,25 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Execution time (ms)</a:t>
+                  <a:rPr lang="uk-UA" sz="1000"/>
+                  <a:t>Час виконання (с)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1000"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.8867138043203135E-3"/>
+              <c:y val="0.24209043965727325"/>
+            </c:manualLayout>
+          </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126177280"/>
+        <c:crossAx val="166823040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3866,18 +4253,31 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1530942010522954"/>
-          <c:y val="0.18231235422135914"/>
-          <c:w val="0.54222830197072802"/>
-          <c:h val="0.42175072218372744"/>
+          <c:x val="0.19609311870364568"/>
+          <c:y val="0.12553675502914083"/>
+          <c:w val="0.58332380817395757"/>
+          <c:h val="0.44615529234818563"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3918,15 +4318,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>577516</xdr:colOff>
+      <xdr:colOff>826169</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>56148</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>128318</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>46068</xdr:rowOff>
+      <xdr:colOff>376971</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>158362</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3982,16 +4382,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>481264</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>56148</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>92644</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>63768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>169201</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>44268</xdr:rowOff>
+      <xdr:colOff>573061</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>51888</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4082,20 +4482,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>264160</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>6926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>64476</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314509</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4112,20 +4512,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>20782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>64476</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342843</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>153328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Диаграмма 7"/>
+        <xdr:cNvPr id="12" name="Диаграмма 11"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4142,20 +4542,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>498764</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>64476</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1090989</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>928</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Диаграмма 8"/>
+        <xdr:cNvPr id="13" name="Диаграмма 12"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4165,6 +4565,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>41563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>425970</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7854</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Диаграмма 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4460,8 +4890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106:K111"/>
+    <sheetView topLeftCell="A83" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92:K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -7757,7 +8187,7 @@
     </row>
     <row r="92" spans="1:22">
       <c r="B92" s="9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -8403,8 +8833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:K58"/>
+    <sheetView topLeftCell="A28" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9296,10 +9726,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:K58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -9315,7 +9745,7 @@
     <col min="12" max="1025" width="11.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -9343,8 +9773,14 @@
       <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -9377,7 +9813,7 @@
         <v>225.895527138402</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -9410,7 +9846,7 @@
         <v>226.05087363352601</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -9443,7 +9879,7 @@
         <v>226.180016079773</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -9476,7 +9912,7 @@
         <v>2993.4148283607701</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -10078,17 +10514,18 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10919,10 +11356,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M76"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:K88"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10934,20 +11371,24 @@
     <col min="8" max="10" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.44140625" customWidth="1"/>
     <col min="12" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+    <col min="16" max="16" width="23.77734375" customWidth="1"/>
+    <col min="17" max="17" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="73.8" customHeight="1">
+    <row r="1" spans="1:17">
       <c r="B1" s="8" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>36</v>
@@ -10962,2070 +11403,3144 @@
         <v>39</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" s="3">
-        <f>B18</f>
+        <f>B24</f>
         <v>171</v>
       </c>
       <c r="C2" s="3">
-        <f>B29</f>
+        <f>B35</f>
         <v>253</v>
       </c>
       <c r="D2" s="3">
-        <f>C18</f>
+        <f>C24</f>
         <v>199</v>
       </c>
       <c r="E2" s="3">
-        <f>C29</f>
+        <f>C35</f>
         <v>413</v>
       </c>
       <c r="F2" s="3">
-        <f>B41</f>
+        <f>B47</f>
         <v>265</v>
       </c>
       <c r="G2" s="3">
-        <f>B52</f>
+        <f>B58</f>
         <v>496</v>
       </c>
       <c r="H2" s="3">
-        <f>C41</f>
+        <f>C47</f>
         <v>354</v>
       </c>
       <c r="I2" s="3">
-        <f>C52</f>
+        <f>C58</f>
         <v>620</v>
       </c>
       <c r="J2">
-        <f>B64</f>
+        <f>B70</f>
         <v>266</v>
       </c>
       <c r="K2">
-        <f>B75</f>
+        <f>B81</f>
         <v>637</v>
       </c>
       <c r="L2">
-        <f>C64</f>
+        <f>C70</f>
         <v>523</v>
       </c>
       <c r="M2">
-        <f>C75</f>
+        <f>C81</f>
         <v>1004</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>24</v>
+      <c r="N2">
+        <f>B93</f>
+        <v>332</v>
+      </c>
+      <c r="O2">
+        <f>B104</f>
+        <v>693</v>
+      </c>
+      <c r="P2">
+        <f>C93</f>
+        <v>588</v>
+      </c>
+      <c r="Q2">
+        <f>C104</f>
+        <v>998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <f>D18</f>
+        <f>D24</f>
         <v>328</v>
       </c>
       <c r="C3" s="3">
-        <f>D29</f>
+        <f>D35</f>
         <v>683</v>
       </c>
       <c r="D3" s="3">
-        <f>E18</f>
+        <f>E24</f>
         <v>438</v>
       </c>
       <c r="E3" s="3">
-        <f>E29</f>
+        <f>E35</f>
         <v>977</v>
       </c>
       <c r="F3">
-        <f>D41</f>
+        <f>D47</f>
         <v>514</v>
       </c>
       <c r="G3">
-        <f>D52</f>
+        <f>D58</f>
         <v>1072</v>
       </c>
       <c r="H3">
-        <f>E41</f>
+        <f>E47</f>
         <v>861</v>
       </c>
       <c r="I3">
-        <f>E52</f>
+        <f>E58</f>
         <v>1755</v>
       </c>
       <c r="J3">
-        <f>D64</f>
+        <f>D70</f>
         <v>578</v>
       </c>
       <c r="K3">
-        <f>D75</f>
+        <f>D81</f>
         <v>1617</v>
       </c>
       <c r="L3">
-        <f>E64</f>
+        <f>E70</f>
         <v>1345</v>
       </c>
       <c r="M3">
-        <f>E75</f>
+        <f>E81</f>
         <v>2681</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>25</v>
+      <c r="N3">
+        <f>D93</f>
+        <v>757</v>
+      </c>
+      <c r="O3">
+        <f>D104</f>
+        <v>1932</v>
+      </c>
+      <c r="P3">
+        <f>E93</f>
+        <v>1544</v>
+      </c>
+      <c r="Q3">
+        <f>E104</f>
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <f>F18</f>
+        <f>F24</f>
         <v>689</v>
       </c>
       <c r="C4" s="3">
-        <f>F29</f>
+        <f>F35</f>
         <v>1445</v>
       </c>
       <c r="D4" s="3">
-        <f>G18</f>
+        <f>G24</f>
         <v>1236</v>
       </c>
       <c r="E4" s="3">
-        <f>G29</f>
+        <f>G35</f>
         <v>3154</v>
       </c>
       <c r="F4">
-        <f>F41</f>
+        <f>F47</f>
         <v>1078</v>
       </c>
       <c r="G4">
-        <f>F52</f>
+        <f>F58</f>
         <v>2431</v>
       </c>
       <c r="H4">
-        <f>G41</f>
+        <f>G47</f>
         <v>2904</v>
       </c>
       <c r="I4">
-        <f>G52</f>
+        <f>G58</f>
         <v>6263</v>
       </c>
       <c r="J4">
-        <f>F64</f>
+        <f>F70</f>
         <v>1220</v>
       </c>
       <c r="K4">
-        <f>F75</f>
+        <f>F81</f>
         <v>4555</v>
       </c>
       <c r="L4">
-        <f>G64</f>
+        <f>G70</f>
         <v>3722</v>
       </c>
       <c r="M4">
-        <f>G75</f>
+        <f>G81</f>
         <v>8072</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>26</v>
+      <c r="N4">
+        <f>F93</f>
+        <v>1688</v>
+      </c>
+      <c r="O4">
+        <f>F104</f>
+        <v>5203</v>
+      </c>
+      <c r="P4">
+        <f>G93</f>
+        <v>4296</v>
+      </c>
+      <c r="Q4">
+        <f>G104</f>
+        <v>8366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <f>H18</f>
+        <f>H24</f>
         <v>1579</v>
       </c>
       <c r="C5" s="3">
-        <f>H29</f>
+        <f>H35</f>
         <v>3068</v>
       </c>
       <c r="D5" s="3">
-        <f>I18</f>
+        <f>I24</f>
         <v>4506</v>
       </c>
       <c r="E5" s="3">
-        <f>I29</f>
+        <f>I35</f>
         <v>7720</v>
       </c>
       <c r="F5">
-        <f>H41</f>
+        <f>H47</f>
         <v>2449</v>
       </c>
       <c r="G5">
-        <f>H52</f>
+        <f>H58</f>
         <v>6191</v>
       </c>
       <c r="H5">
-        <f>I41</f>
+        <f>I47</f>
         <v>10889</v>
       </c>
       <c r="I5">
-        <f>I52</f>
+        <f>I58</f>
         <v>15034</v>
       </c>
       <c r="J5">
-        <f>H64</f>
+        <f>H70</f>
         <v>2949</v>
       </c>
       <c r="K5">
-        <f>H75</f>
+        <f>H81</f>
         <v>12632</v>
       </c>
       <c r="L5">
-        <f>I64</f>
+        <f>I70</f>
         <v>12037</v>
       </c>
       <c r="M5">
-        <f>I75</f>
+        <f>I81</f>
         <v>26623</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>27</v>
+      <c r="N5">
+        <f>H93</f>
+        <v>3657</v>
+      </c>
+      <c r="O5">
+        <f>H104</f>
+        <v>16921</v>
+      </c>
+      <c r="P5">
+        <f>I93</f>
+        <v>13616</v>
+      </c>
+      <c r="Q5">
+        <f>I104</f>
+        <v>26880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <f>J18</f>
+        <f>J24</f>
         <v>3606</v>
       </c>
       <c r="C6" s="3">
-        <f>J29</f>
+        <f>J35</f>
         <v>8320</v>
       </c>
       <c r="D6" s="3">
-        <f>K18</f>
+        <f>K24</f>
         <v>10025</v>
       </c>
       <c r="E6" s="3">
-        <f>K29</f>
+        <f>K35</f>
         <v>23545</v>
       </c>
       <c r="F6">
-        <f>J41</f>
+        <f>J47</f>
         <v>5830</v>
       </c>
       <c r="G6">
-        <f>J52</f>
+        <f>J58</f>
         <v>15706</v>
       </c>
       <c r="H6">
-        <f>K41</f>
+        <f>K47</f>
         <v>21714</v>
       </c>
       <c r="I6">
-        <f>K52</f>
+        <f>K58</f>
         <v>34647</v>
       </c>
       <c r="J6">
-        <f>J64</f>
+        <f>J70</f>
         <v>7613</v>
       </c>
       <c r="K6">
-        <f>J75</f>
+        <f>J81</f>
         <v>43174</v>
       </c>
       <c r="L6">
-        <f>K64</f>
+        <f>K70</f>
         <v>45493</v>
       </c>
       <c r="M6">
-        <f>K75</f>
+        <f>K81</f>
         <v>96924</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="9" t="s">
+      <c r="N6">
+        <f>J93</f>
+        <v>9531</v>
+      </c>
+      <c r="O6">
+        <f>J104</f>
+        <v>68499</v>
+      </c>
+      <c r="P6">
+        <f>K93</f>
+        <v>47118</v>
+      </c>
+      <c r="Q6">
+        <f>K104</f>
+        <v>95695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="10" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <f>B2/1000</f>
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:Q9" si="0">C2/1000</f>
+        <v>0.253</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.496</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1.004</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:Q13" si="1">B3/1000</f>
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.438</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>1.617</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1.345</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>2.681</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>1.9319999999999999</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="1"/>
+        <v>1.544</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>2.8149999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1.4450000000000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1.236</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>2.431</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>2.9039999999999999</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>6.2629999999999999</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>1.22</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>4.5549999999999997</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>3.722</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>8.0719999999999992</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>5.2030000000000003</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>4.2960000000000003</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>8.3659999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>1.579</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>4.5060000000000002</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>7.72</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>6.1909999999999998</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>10.888999999999999</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>15.034000000000001</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>2.9489999999999998</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>12.632</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>12.037000000000001</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>26.623000000000001</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>3.657</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>16.920999999999999</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="1"/>
+        <v>13.616</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>3.6059999999999999</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>8.32</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>10.025</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>23.545000000000002</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>5.83</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>15.706</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>21.713999999999999</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>34.646999999999998</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>7.6130000000000004</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>43.173999999999999</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>45.493000000000002</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>96.924000000000007</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>9.5310000000000006</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>68.498999999999995</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="1"/>
+        <v>47.118000000000002</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>95.694999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="2" t="s">
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="B20">
         <v>23.737580490555501</v>
       </c>
-      <c r="C14">
+      <c r="C20">
         <v>231.235214377673</v>
       </c>
-      <c r="D14">
+      <c r="D20">
         <v>24.286715721865999</v>
       </c>
-      <c r="E14">
+      <c r="E20">
         <v>231.33344285408899</v>
       </c>
-      <c r="F14">
+      <c r="F20">
         <v>24.111829106410699</v>
       </c>
-      <c r="G14">
+      <c r="G20">
         <v>231.182343770724</v>
       </c>
-      <c r="H14">
+      <c r="H20">
         <v>23.772051146268801</v>
       </c>
-      <c r="I14">
+      <c r="I20">
         <v>903.30484006678296</v>
       </c>
-      <c r="J14">
+      <c r="J20">
         <v>22.0581955309232</v>
       </c>
-      <c r="K14">
+      <c r="K20">
         <v>4052.1281709703499</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B21" s="5">
         <v>13324559.2142858</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C21" s="5">
         <v>13711709.7321431</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D21" s="5">
         <v>13327340.3142859</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E21" s="5">
         <v>14158811.2250003</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F21" s="5">
         <v>13332902.514286101</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G21" s="5">
         <v>14388138.8750004</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H21" s="5">
         <v>13344026.9142865</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I21" s="5">
         <v>14408299.1343855</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J21" s="5">
         <v>13366275.7142874</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K21" s="5">
         <v>14461867.957148699</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B22">
         <v>3490063.2937799799</v>
       </c>
-      <c r="C16">
+      <c r="C22">
         <v>3496717.6791937598</v>
       </c>
-      <c r="D16">
+      <c r="D22">
         <v>6983289.2794199698</v>
       </c>
-      <c r="E16">
+      <c r="E22">
         <v>6995754.8313037902</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F22" s="5">
         <v>13966656.099899899</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G22" s="5">
         <v>13990168.079218799</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H22" s="5">
         <v>27927961.937919799</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I22" s="5">
         <v>27951897.774918001</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J22" s="5">
         <v>55765338.133299902</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K22" s="5">
         <v>55925924.111024998</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="B23">
         <v>834332.99999999802</v>
       </c>
-      <c r="C17">
+      <c r="C23">
         <v>834332.99999999802</v>
       </c>
-      <c r="D17">
+      <c r="D23">
         <v>1668665.99999999</v>
       </c>
-      <c r="E17">
+      <c r="E23">
         <v>1668665.99999999</v>
       </c>
-      <c r="F17">
+      <c r="F23">
         <v>3337331.9999999902</v>
       </c>
-      <c r="G17">
+      <c r="G23">
         <v>3337331.9999999902</v>
       </c>
-      <c r="H17">
+      <c r="H23">
         <v>6674663.9999999898</v>
       </c>
-      <c r="I17">
+      <c r="I23">
         <v>6674663.9999999898</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J23" s="5">
         <v>13349327.999999899</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K23" s="5">
         <v>13349327.999999899</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2" t="s">
+    <row r="24" spans="1:11">
+      <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B24" s="3">
         <v>171</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C24" s="3">
         <v>199</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D24" s="3">
         <v>328</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E24" s="3">
         <v>438</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F24" s="3">
         <v>689</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G24" s="3">
         <v>1236</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H24" s="3">
         <v>1579</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I24" s="3">
         <v>4506</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J24" s="3">
         <v>3606</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K24" s="3">
         <v>10025</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="2" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B25" s="4">
         <v>5305.2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C25" s="4">
         <v>39833</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D25" s="4">
         <v>9620.4</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E25" s="4">
         <v>82699.3</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F25" s="4">
         <v>18250.8</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G25" s="4">
         <v>181966.8</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H25" s="4">
         <v>35511.599999999999</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I25" s="4">
         <v>412622.5</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J25" s="4">
         <v>70033.2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K25" s="4">
         <v>706581.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="2"/>
-      <c r="B23" s="10" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2"/>
+      <c r="B29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10" t="s">
+      <c r="G29" s="10"/>
+      <c r="H29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10" t="s">
+      <c r="I29" s="10"/>
+      <c r="J29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="2" t="s">
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="B30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
         <v>7</v>
       </c>
-      <c r="B25">
+      <c r="B31">
         <v>31.975317660232101</v>
       </c>
-      <c r="C25">
+      <c r="C31">
         <v>225.895527138402</v>
       </c>
-      <c r="D25">
+      <c r="D31">
         <v>32.279843791437997</v>
       </c>
-      <c r="E25">
+      <c r="E31">
         <v>226.05087363352601</v>
       </c>
-      <c r="F25">
+      <c r="F31">
         <v>32.074130988169998</v>
       </c>
-      <c r="G25">
+      <c r="G31">
         <v>226.180016079773</v>
       </c>
-      <c r="H25">
+      <c r="H31">
         <v>32.510245199121599</v>
       </c>
-      <c r="I25">
+      <c r="I31">
         <v>2993.4148283607701</v>
       </c>
-      <c r="J25">
+      <c r="J31">
         <v>32.549403037660497</v>
       </c>
-      <c r="K25">
+      <c r="K31">
         <v>4580.4153499016202</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
+    <row r="32" spans="1:11">
+      <c r="A32" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B32" s="5">
         <v>13324315.6142857</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C32" s="5">
         <v>14030679.178571699</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D32" s="5">
         <v>13327096.714285901</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E32" s="5">
         <v>14411798.3178578</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F32" s="5">
         <v>13332658.914286001</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G32" s="5">
         <v>14425835.1443581</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H32" s="5">
         <v>13343783.3142865</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I32" s="5">
         <v>14441914.751595801</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J32" s="5">
         <v>13366032.114287401</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K32" s="5">
         <v>14467338.7035701</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
         <v>9</v>
       </c>
-      <c r="B27">
+      <c r="B33">
         <v>3497125.6280600298</v>
       </c>
-      <c r="C27">
+      <c r="C33">
         <v>3497675.7858000398</v>
       </c>
-      <c r="D27">
+      <c r="D33">
         <v>6992501.8536600703</v>
       </c>
-      <c r="E27">
+      <c r="E33">
         <v>6998057.0287601501</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F33" s="5">
         <v>13986499.933180099</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G33" s="5">
         <v>13995580.9194676</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H33" s="5">
         <v>27972667.428280301</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I33" s="5">
         <v>27977617.310780101</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J33" s="5">
         <v>55945101.9992406</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K33" s="5">
         <v>55960704.488230601</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" t="s">
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
-      <c r="B28">
+      <c r="B34">
         <v>1073146.1618600099</v>
       </c>
-      <c r="C28">
+      <c r="C34">
         <v>834332.99999999802</v>
       </c>
-      <c r="D28">
+      <c r="D34">
         <v>2146220.60662001</v>
       </c>
-      <c r="E28">
+      <c r="E34">
         <v>1668665.99999999</v>
       </c>
-      <c r="F28">
+      <c r="F34">
         <v>4292553.5700300299</v>
       </c>
-      <c r="G28">
+      <c r="G34">
         <v>3337331.9999999902</v>
       </c>
-      <c r="H28">
+      <c r="H34">
         <v>8585316.3149350509</v>
       </c>
-      <c r="I28">
+      <c r="I34">
         <v>6674663.9999999898</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J34" s="5">
         <v>17170459.982904699</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K34" s="5">
         <v>13349327.999999899</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" t="s">
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B29">
+      <c r="B35">
         <v>253</v>
       </c>
-      <c r="C29">
+      <c r="C35">
         <v>413</v>
       </c>
-      <c r="D29">
+      <c r="D35">
         <v>683</v>
       </c>
-      <c r="E29">
+      <c r="E35">
         <v>977</v>
       </c>
-      <c r="F29">
+      <c r="F35">
         <v>1445</v>
       </c>
-      <c r="G29">
+      <c r="G35">
         <v>3154</v>
       </c>
-      <c r="H29">
+      <c r="H35">
         <v>3068</v>
       </c>
-      <c r="I29">
+      <c r="I35">
         <v>7720</v>
       </c>
-      <c r="J29">
+      <c r="J35">
         <v>8320</v>
       </c>
-      <c r="K29">
+      <c r="K35">
         <v>23545</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
         <v>12</v>
       </c>
-      <c r="B30">
+      <c r="B36">
         <v>8800.4</v>
       </c>
-      <c r="C30">
+      <c r="C36">
         <v>78954.2</v>
       </c>
-      <c r="D30">
+      <c r="D36">
         <v>16630.7</v>
       </c>
-      <c r="E30">
+      <c r="E36">
         <v>165648.9</v>
       </c>
-      <c r="F30">
+      <c r="F36">
         <v>32244.3</v>
       </c>
-      <c r="G30">
+      <c r="G36">
         <v>363053.4</v>
       </c>
-      <c r="H30">
+      <c r="H36">
         <v>63567.8</v>
       </c>
-      <c r="I30">
+      <c r="I36">
         <v>707318.7</v>
       </c>
-      <c r="J30">
+      <c r="J36">
         <v>126189.9</v>
       </c>
-      <c r="K30">
+      <c r="K36">
         <v>1295200.8</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="9" t="s">
+    <row r="40" spans="1:11">
+      <c r="A40" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="B35" s="10" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="B41" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="s">
+      <c r="E41" s="10"/>
+      <c r="F41" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10" t="s">
+      <c r="G41" s="10"/>
+      <c r="H41" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10" t="s">
+      <c r="I41" s="10"/>
+      <c r="J41" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="10"/>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="B36" s="2" t="s">
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="B42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
         <v>7</v>
       </c>
-      <c r="B37">
+      <c r="B43">
         <v>23.737580490555501</v>
       </c>
-      <c r="C37">
+      <c r="C43">
         <v>231.235214377673</v>
       </c>
-      <c r="D37">
+      <c r="D43">
         <v>24.286715721865999</v>
       </c>
-      <c r="E37">
+      <c r="E43">
         <v>231.33344285408899</v>
       </c>
-      <c r="F37">
+      <c r="F43">
         <v>24.111829106410699</v>
       </c>
-      <c r="G37">
+      <c r="G43">
         <v>231.182343770724</v>
       </c>
-      <c r="H37">
+      <c r="H43">
         <v>23.772051146268801</v>
       </c>
-      <c r="I37">
+      <c r="I43">
         <v>908.39377029944399</v>
       </c>
-      <c r="J37">
+      <c r="J43">
         <v>22.0581955309232</v>
       </c>
-      <c r="K37">
+      <c r="K43">
         <v>4052.1281709703499</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B44" s="5">
         <v>13324559.2142858</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C44" s="5">
         <v>13711709.7321431</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D44" s="5">
         <v>13327340.3142859</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E44" s="5">
         <v>14158811.2250003</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F44" s="5">
         <v>13332902.514286101</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G44" s="5">
         <v>14388138.8750004</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H44" s="5">
         <v>13344026.9142865</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I44" s="5">
         <v>14407105.64353</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J44" s="5">
         <v>13366275.7142874</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K44" s="5">
         <v>14461867.957148699</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
         <v>9</v>
       </c>
-      <c r="B39">
+      <c r="B45">
         <v>3490063.2937799799</v>
       </c>
-      <c r="C39">
+      <c r="C45">
         <v>3496717.6791937598</v>
       </c>
-      <c r="D39">
+      <c r="D45">
         <v>6983289.2794199698</v>
       </c>
-      <c r="E39">
+      <c r="E45">
         <v>6995754.8313037902</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F45" s="5">
         <v>13966656.099899899</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G45" s="5">
         <v>13990168.079218799</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H45" s="5">
         <v>27927961.937919799</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I45" s="5">
         <v>27952633.279918302</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J45" s="5">
         <v>55765338.133299902</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K45" s="5">
         <v>55925924.111024998</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
         <v>10</v>
       </c>
-      <c r="B40">
+      <c r="B46">
         <v>834332.99999999802</v>
       </c>
-      <c r="C40">
+      <c r="C46">
         <v>834332.99999999802</v>
       </c>
-      <c r="D40">
+      <c r="D46">
         <v>1668665.99999999</v>
       </c>
-      <c r="E40">
+      <c r="E46">
         <v>1668665.99999999</v>
       </c>
-      <c r="F40">
+      <c r="F46">
         <v>3337331.9999999902</v>
       </c>
-      <c r="G40">
+      <c r="G46">
         <v>3337331.9999999902</v>
       </c>
-      <c r="H40">
+      <c r="H46">
         <v>6674663.9999999898</v>
       </c>
-      <c r="I40">
+      <c r="I46">
         <v>6674663.9999999898</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J46" s="5">
         <v>13349327.999999899</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K46" s="5">
         <v>13349327.999999899</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="2" t="s">
+    <row r="47" spans="1:11">
+      <c r="A47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B47" s="3">
         <v>265</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C47" s="3">
         <v>354</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D47" s="3">
         <v>514</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E47" s="3">
         <v>861</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F47" s="3">
         <v>1078</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G47" s="3">
         <v>2904</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H47" s="3">
         <v>2449</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I47" s="3">
         <v>10889</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J47" s="3">
         <v>5830</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K47" s="3">
         <v>21714</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="2" t="s">
+    <row r="48" spans="1:11">
+      <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B48" s="4">
         <v>5305.2</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C48" s="4">
         <v>39833</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D48" s="4">
         <v>9620.4</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E48" s="4">
         <v>82699.3</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F48" s="4">
         <v>18250.8</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G48" s="4">
         <v>181966.8</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H48" s="4">
         <v>35511.599999999999</v>
       </c>
-      <c r="I42" s="4">
+      <c r="I48" s="4">
         <v>413261.4</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J48" s="4">
         <v>70033.2</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K48" s="4">
         <v>706581.9</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="2"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="2"/>
-      <c r="B46" s="10" t="s">
+    <row r="49" spans="1:11">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2"/>
+      <c r="B52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10" t="s">
+      <c r="E52" s="10"/>
+      <c r="F52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10" t="s">
+      <c r="G52" s="10"/>
+      <c r="H52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10" t="s">
+      <c r="I52" s="10"/>
+      <c r="J52" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="B47" s="2" t="s">
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
         <v>7</v>
       </c>
-      <c r="B48">
+      <c r="B54">
         <v>31.975317660232101</v>
       </c>
-      <c r="C48">
+      <c r="C54">
         <v>225.895527138402</v>
       </c>
-      <c r="D48">
+      <c r="D54">
         <v>32.279843791437997</v>
       </c>
-      <c r="E48">
+      <c r="E54">
         <v>226.05087363352601</v>
       </c>
-      <c r="F48">
+      <c r="F54">
         <v>32.074130988169998</v>
       </c>
-      <c r="G48">
+      <c r="G54">
         <v>226.180016079773</v>
       </c>
-      <c r="H48">
+      <c r="H54">
         <v>32.7141837048108</v>
       </c>
-      <c r="I48">
+      <c r="I54">
         <v>2993.4148283607701</v>
       </c>
-      <c r="J48">
+      <c r="J54">
         <v>32.833091981258598</v>
       </c>
-      <c r="K48">
+      <c r="K54">
         <v>4580.4153499016202</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B55" s="5">
         <v>13324315.6142857</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C55" s="5">
         <v>14030679.178571699</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D55" s="5">
         <v>13327096.714285901</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E55" s="5">
         <v>14411798.3178578</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F55" s="5">
         <v>13332658.914286001</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G55" s="5">
         <v>14425835.1443581</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H55" s="5">
         <v>13343783.3142865</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I55" s="5">
         <v>14441914.751595801</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J55" s="5">
         <v>13366032.114287401</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K55" s="5">
         <v>14467338.7035701</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
         <v>9</v>
       </c>
-      <c r="B50">
+      <c r="B56">
         <v>3497125.6280600298</v>
       </c>
-      <c r="C50">
+      <c r="C56">
         <v>3497675.7858000398</v>
       </c>
-      <c r="D50">
+      <c r="D56">
         <v>6992501.8536600703</v>
       </c>
-      <c r="E50">
+      <c r="E56">
         <v>6998057.0287601501</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F56" s="5">
         <v>13986499.933180099</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G56" s="5">
         <v>13995580.9194676</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H56" s="5">
         <v>27972200.838160299</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I56" s="5">
         <v>27977617.310780101</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J56" s="5">
         <v>55946302.007460602</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K56" s="5">
         <v>55960704.488230601</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
         <v>10</v>
       </c>
-      <c r="B51">
+      <c r="B57">
         <v>1073146.1618600099</v>
       </c>
-      <c r="C51">
+      <c r="C57">
         <v>834332.99999999802</v>
       </c>
-      <c r="D51">
+      <c r="D57">
         <v>2146220.60662001</v>
       </c>
-      <c r="E51">
+      <c r="E57">
         <v>1668665.99999999</v>
       </c>
-      <c r="F51">
+      <c r="F57">
         <v>4292553.5700300299</v>
       </c>
-      <c r="G51">
+      <c r="G57">
         <v>3337331.9999999902</v>
       </c>
-      <c r="H51">
+      <c r="H57">
         <v>8585310.3385100495</v>
       </c>
-      <c r="I51">
+      <c r="I57">
         <v>6674663.9999999898</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J57" s="5">
         <v>17170842.330670498</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K57" s="5">
         <v>13349327.999999899</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
         <v>11</v>
       </c>
-      <c r="B52">
+      <c r="B58">
         <v>496</v>
       </c>
-      <c r="C52">
+      <c r="C58">
         <v>620</v>
       </c>
-      <c r="D52">
+      <c r="D58">
         <v>1072</v>
       </c>
-      <c r="E52">
+      <c r="E58">
         <v>1755</v>
       </c>
-      <c r="F52">
+      <c r="F58">
         <v>2431</v>
       </c>
-      <c r="G52">
+      <c r="G58">
         <v>6263</v>
       </c>
-      <c r="H52">
+      <c r="H58">
         <v>6191</v>
       </c>
-      <c r="I52">
+      <c r="I58">
         <v>15034</v>
       </c>
-      <c r="J52">
+      <c r="J58">
         <v>15706</v>
       </c>
-      <c r="K52">
+      <c r="K58">
         <v>34647</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" t="s">
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
         <v>12</v>
       </c>
-      <c r="B53">
+      <c r="B59">
         <v>8800.4</v>
       </c>
-      <c r="C53">
+      <c r="C59">
         <v>78954.2</v>
       </c>
-      <c r="D53">
+      <c r="D59">
         <v>16630.7</v>
       </c>
-      <c r="E53">
+      <c r="E59">
         <v>165648.9</v>
       </c>
-      <c r="F53">
+      <c r="F59">
         <v>32244.3</v>
       </c>
-      <c r="G53">
+      <c r="G59">
         <v>363053.4</v>
       </c>
-      <c r="H53">
+      <c r="H59">
         <v>63571.5</v>
       </c>
-      <c r="I53">
+      <c r="I59">
         <v>707318.7</v>
       </c>
-      <c r="J53">
+      <c r="J59">
         <v>126296.8</v>
       </c>
-      <c r="K53">
+      <c r="K59">
         <v>1295200.8</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="B57" s="9" t="s">
+    <row r="63" spans="1:11">
+      <c r="B63" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="B58" s="10" t="s">
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="B64" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10" t="s">
+      <c r="C64" s="10"/>
+      <c r="D64" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10" t="s">
+      <c r="E64" s="10"/>
+      <c r="F64" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10" t="s">
+      <c r="G64" s="10"/>
+      <c r="H64" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10" t="s">
+      <c r="I64" s="10"/>
+      <c r="J64" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="10"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="B59" s="2" t="s">
+      <c r="K64" s="10"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" t="s">
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
         <v>7</v>
       </c>
-      <c r="B60">
+      <c r="B66">
         <v>23.737580490555501</v>
       </c>
-      <c r="C60">
+      <c r="C66">
         <v>230.80233742462599</v>
       </c>
-      <c r="D60">
+      <c r="D66">
         <v>24.286715721865999</v>
       </c>
-      <c r="E60">
+      <c r="E66">
         <v>231.21970051504101</v>
       </c>
-      <c r="F60">
+      <c r="F66">
         <v>24.111829106410699</v>
       </c>
-      <c r="G60">
+      <c r="G66">
         <v>231.006293407046</v>
       </c>
-      <c r="H60">
+      <c r="H66">
         <v>23.772051146268801</v>
       </c>
-      <c r="I60">
+      <c r="I66">
         <v>230.86525095769699</v>
       </c>
-      <c r="J60">
+      <c r="J66">
         <v>22.0581955309232</v>
       </c>
-      <c r="K60">
+      <c r="K66">
         <v>230.47470651599301</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" t="s">
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B67" s="5">
         <v>13324559.2142858</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C67" s="5">
         <v>13586141.907143001</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D67" s="5">
         <v>13327340.3142859</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E67" s="5">
         <v>14157348.678357501</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F67" s="5">
         <v>13332902.514286101</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G67" s="5">
         <v>14377591.8339293</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H67" s="5">
         <v>13344026.9142865</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I67" s="5">
         <v>14416203.306001101</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J67" s="5">
         <v>13366275.7142874</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K67" s="5">
         <v>14449556.8647155</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" t="s">
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
         <v>9</v>
       </c>
-      <c r="B62">
+      <c r="B68">
         <v>3490063.2937799799</v>
       </c>
-      <c r="C62">
+      <c r="C68">
         <v>3493160.0415087501</v>
       </c>
-      <c r="D62">
+      <c r="D68">
         <v>6983289.2794199698</v>
       </c>
-      <c r="E62">
+      <c r="E68">
         <v>6985135.7589962604</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F68" s="5">
         <v>13966656.099899899</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G68" s="5">
         <v>13965670.210165</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H68" s="5">
         <v>27927961.937919799</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I68" s="5">
         <v>27926640.110184699</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J68" s="5">
         <v>55765338.133299902</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K68" s="5">
         <v>55698607.810466699</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" t="s">
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
         <v>10</v>
       </c>
-      <c r="B63">
+      <c r="B69">
         <v>834332.99999999802</v>
       </c>
-      <c r="C63">
+      <c r="C69">
         <v>834332.99999999802</v>
       </c>
-      <c r="D63">
+      <c r="D69">
         <v>1668665.99999999</v>
       </c>
-      <c r="E63">
+      <c r="E69">
         <v>1668665.99999999</v>
       </c>
-      <c r="F63">
+      <c r="F69">
         <v>3337331.9999999902</v>
       </c>
-      <c r="G63">
+      <c r="G69">
         <v>3337331.9999999902</v>
       </c>
-      <c r="H63">
+      <c r="H69">
         <v>6674663.9999999898</v>
       </c>
-      <c r="I63">
+      <c r="I69">
         <v>6674663.9999999898</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J69" s="5">
         <v>13349327.999999899</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K69" s="5">
         <v>13349327.999999899</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" t="s">
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B70" s="3">
         <v>266</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C70" s="3">
         <v>523</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D70" s="3">
         <v>578</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E70" s="3">
         <v>1345</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F70" s="3">
         <v>1220</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G70" s="3">
         <v>3722</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H70" s="3">
         <v>2949</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I70" s="3">
         <v>12037</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J70" s="3">
         <v>7613</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K70" s="3">
         <v>45493</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="4">
-        <v>5305.2</v>
-      </c>
-      <c r="C65" s="4">
-        <v>38641.4</v>
-      </c>
-      <c r="D65" s="4">
-        <v>9620.4</v>
-      </c>
-      <c r="E65" s="4">
-        <v>76458.7</v>
-      </c>
-      <c r="F65" s="4">
-        <v>18250.8</v>
-      </c>
-      <c r="G65" s="4">
-        <v>151784.4</v>
-      </c>
-      <c r="H65" s="4">
-        <v>35511.599999999999</v>
-      </c>
-      <c r="I65" s="4">
-        <v>304981</v>
-      </c>
-      <c r="J65" s="4">
-        <v>70033.2</v>
-      </c>
-      <c r="K65" s="4">
-        <v>608999.6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="B69" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="10"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="B70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="4">
+        <v>5305.2</v>
+      </c>
+      <c r="C71" s="4">
+        <v>38641.4</v>
+      </c>
+      <c r="D71" s="4">
+        <v>9620.4</v>
+      </c>
+      <c r="E71" s="4">
+        <v>76458.7</v>
+      </c>
+      <c r="F71" s="4">
+        <v>18250.8</v>
+      </c>
+      <c r="G71" s="4">
+        <v>151784.4</v>
+      </c>
+      <c r="H71" s="4">
+        <v>35511.599999999999</v>
+      </c>
+      <c r="I71" s="4">
+        <v>304981</v>
+      </c>
+      <c r="J71" s="4">
+        <v>70033.2</v>
+      </c>
+      <c r="K71" s="4">
+        <v>608999.6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="B75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="10"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="B76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
         <v>7</v>
       </c>
-      <c r="B71">
+      <c r="B77">
         <v>35.5656159663897</v>
       </c>
-      <c r="C71">
+      <c r="C77">
         <v>225.64119292787299</v>
       </c>
-      <c r="D71">
+      <c r="D77">
         <v>36.339004466148303</v>
       </c>
-      <c r="E71">
+      <c r="E77">
         <v>225.87969759816801</v>
       </c>
-      <c r="F71">
+      <c r="F77">
         <v>35.969082684167603</v>
       </c>
-      <c r="G71">
+      <c r="G77">
         <v>225.86520415713599</v>
       </c>
-      <c r="H71">
+      <c r="H77">
         <v>36.106559977693799</v>
       </c>
-      <c r="I71">
+      <c r="I77">
         <v>226.04703267120601</v>
       </c>
-      <c r="J71">
+      <c r="J77">
         <v>36.020336976305202</v>
       </c>
-      <c r="K71">
+      <c r="K77">
         <v>228.24678490083801</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" t="s">
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B78" s="5">
         <v>13324315.6142857</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C78" s="5">
         <v>13910454.3819289</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D78" s="5">
         <v>13327096.714285901</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E78" s="5">
         <v>14403517.0281436</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F78" s="5">
         <v>13332658.914286001</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G78" s="5">
         <v>14411387.131000601</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H78" s="5">
         <v>13343783.3142865</v>
       </c>
-      <c r="I72" s="5">
+      <c r="I78" s="5">
         <v>14452692.798358601</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J78" s="5">
         <v>13366032.114287401</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K78" s="5">
         <v>14467114.678571099</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" t="s">
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
         <v>9</v>
       </c>
-      <c r="B73">
+      <c r="B79">
         <v>3499272.4475400299</v>
       </c>
-      <c r="C73">
+      <c r="C79">
         <v>3493526.1041287598</v>
       </c>
-      <c r="D73">
+      <c r="D79">
         <v>6999184.6164600803</v>
       </c>
-      <c r="E73">
+      <c r="E79">
         <v>6990021.7416163096</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F79" s="5">
         <v>13997947.312640101</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G79" s="5">
         <v>13986048.6906827</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H79" s="5">
         <v>27996651.7017003</v>
       </c>
-      <c r="I73" s="5">
+      <c r="I79" s="5">
         <v>27970859.014905501</v>
       </c>
-      <c r="J73" s="5">
+      <c r="J79" s="5">
         <v>55993370.265640698</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K79" s="5">
         <v>55950069.597465903</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
-      <c r="A74" t="s">
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
         <v>10</v>
       </c>
-      <c r="B74">
+      <c r="B80">
         <v>1073093.56932002</v>
       </c>
-      <c r="C74">
+      <c r="C80">
         <v>834332.99999999802</v>
       </c>
-      <c r="D74">
+      <c r="D80">
         <v>2146335.35398005</v>
       </c>
-      <c r="E74">
+      <c r="E80">
         <v>1668665.99999999</v>
       </c>
-      <c r="F74">
+      <c r="F80">
         <v>4292744.8156300997</v>
       </c>
-      <c r="G74">
+      <c r="G80">
         <v>3337331.9999999902</v>
       </c>
-      <c r="H74">
+      <c r="H80">
         <v>8585483.6548352093</v>
       </c>
-      <c r="I74">
+      <c r="I80">
         <v>6674663.9999999898</v>
       </c>
-      <c r="J74" s="5">
+      <c r="J80" s="5">
         <v>17170993.605940402</v>
       </c>
-      <c r="K74" s="5">
+      <c r="K80" s="5">
         <v>13349327.999999899</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
-      <c r="A75" t="s">
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
         <v>11</v>
       </c>
-      <c r="B75">
+      <c r="B81">
         <v>637</v>
       </c>
-      <c r="C75">
+      <c r="C81">
         <v>1004</v>
       </c>
-      <c r="D75">
+      <c r="D81">
         <v>1617</v>
       </c>
-      <c r="E75">
+      <c r="E81">
         <v>2681</v>
       </c>
-      <c r="F75">
+      <c r="F81">
         <v>4555</v>
       </c>
-      <c r="G75">
+      <c r="G81">
         <v>8072</v>
       </c>
-      <c r="H75">
+      <c r="H81">
         <v>12632</v>
       </c>
-      <c r="I75">
+      <c r="I81">
         <v>26623</v>
       </c>
-      <c r="J75">
+      <c r="J81">
         <v>43174</v>
       </c>
-      <c r="K75">
+      <c r="K81">
         <v>96924</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
-      <c r="A76" t="s">
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
         <v>12</v>
       </c>
-      <c r="B76">
+      <c r="B82">
         <v>6655.6</v>
       </c>
-      <c r="C76">
+      <c r="C82">
         <v>77273.8</v>
       </c>
-      <c r="D76">
+      <c r="D82">
         <v>12331.7</v>
       </c>
-      <c r="E76">
+      <c r="E82">
         <v>152656.6</v>
       </c>
-      <c r="F76">
+      <c r="F82">
         <v>23665.599999999999</v>
       </c>
-      <c r="G76">
+      <c r="G82">
         <v>304054.8</v>
       </c>
-      <c r="H76">
+      <c r="H82">
         <v>46359.4</v>
       </c>
-      <c r="I76">
+      <c r="I82">
         <v>607843.4</v>
       </c>
-      <c r="J76">
+      <c r="J82">
         <v>91709.1</v>
       </c>
-      <c r="K76">
+      <c r="K82">
         <v>1214659.8</v>
       </c>
     </row>
+    <row r="86" spans="1:11">
+      <c r="B86" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="B87" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K87" s="10"/>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="B88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89">
+        <v>24.150529428173002</v>
+      </c>
+      <c r="C89">
+        <v>231.00282693173901</v>
+      </c>
+      <c r="D89">
+        <v>24.183125822253899</v>
+      </c>
+      <c r="E89">
+        <v>231.371445952193</v>
+      </c>
+      <c r="F89">
+        <v>24.357820296723698</v>
+      </c>
+      <c r="G89">
+        <v>231.21819850956999</v>
+      </c>
+      <c r="H89">
+        <v>23.955591808261602</v>
+      </c>
+      <c r="I89">
+        <v>231.09573226033001</v>
+      </c>
+      <c r="J89">
+        <v>22.200605668356399</v>
+      </c>
+      <c r="K89">
+        <v>231.08025141760001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="5">
+        <v>13324565.0142857</v>
+      </c>
+      <c r="C90" s="5">
+        <v>13641765.771428701</v>
+      </c>
+      <c r="D90" s="5">
+        <v>13327346.114285899</v>
+      </c>
+      <c r="E90" s="5">
+        <v>14170686.6732147</v>
+      </c>
+      <c r="F90" s="5">
+        <v>13332908.3142861</v>
+      </c>
+      <c r="G90" s="5">
+        <v>14395894.8732149</v>
+      </c>
+      <c r="H90" s="5">
+        <v>13344032.714286501</v>
+      </c>
+      <c r="I90" s="5">
+        <v>14421941.602286899</v>
+      </c>
+      <c r="J90" s="5">
+        <v>13366281.5142873</v>
+      </c>
+      <c r="K90" s="5">
+        <v>14450864.32143</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91">
+        <v>3491978.8541999599</v>
+      </c>
+      <c r="C91">
+        <v>3493054.15487502</v>
+      </c>
+      <c r="D91">
+        <v>6983645.9458999597</v>
+      </c>
+      <c r="E91">
+        <v>6986042.6977412701</v>
+      </c>
+      <c r="F91" s="5">
+        <v>13970330.1229799</v>
+      </c>
+      <c r="G91" s="5">
+        <v>13967696.238218701</v>
+      </c>
+      <c r="H91" s="5">
+        <v>27929430.871199802</v>
+      </c>
+      <c r="I91" s="5">
+        <v>27931936.162473999</v>
+      </c>
+      <c r="J91" s="5">
+        <v>55774085.552799903</v>
+      </c>
+      <c r="K91" s="5">
+        <v>55820533.685827598</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92">
+        <v>834332.99999999802</v>
+      </c>
+      <c r="C92">
+        <v>834332.99999999802</v>
+      </c>
+      <c r="D92">
+        <v>1668665.99999999</v>
+      </c>
+      <c r="E92">
+        <v>1668665.99999999</v>
+      </c>
+      <c r="F92">
+        <v>3337331.9999999902</v>
+      </c>
+      <c r="G92">
+        <v>3337331.9999999902</v>
+      </c>
+      <c r="H92">
+        <v>6674663.9999999898</v>
+      </c>
+      <c r="I92">
+        <v>6674663.9999999898</v>
+      </c>
+      <c r="J92" s="5">
+        <v>13349327.999999899</v>
+      </c>
+      <c r="K92" s="5">
+        <v>13349327.999999899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="3">
+        <v>332</v>
+      </c>
+      <c r="C93" s="3">
+        <v>588</v>
+      </c>
+      <c r="D93" s="3">
+        <v>757</v>
+      </c>
+      <c r="E93" s="3">
+        <v>1544</v>
+      </c>
+      <c r="F93" s="3">
+        <v>1688</v>
+      </c>
+      <c r="G93" s="3">
+        <v>4296</v>
+      </c>
+      <c r="H93" s="3">
+        <v>3657</v>
+      </c>
+      <c r="I93" s="3">
+        <v>13616</v>
+      </c>
+      <c r="J93" s="3">
+        <v>9531</v>
+      </c>
+      <c r="K93" s="3">
+        <v>47118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="4">
+        <v>5305.2</v>
+      </c>
+      <c r="C94" s="4">
+        <v>38619.699999999997</v>
+      </c>
+      <c r="D94" s="4">
+        <v>9620.4</v>
+      </c>
+      <c r="E94" s="4">
+        <v>77209.649999999994</v>
+      </c>
+      <c r="F94" s="4">
+        <v>18250.8</v>
+      </c>
+      <c r="G94" s="4">
+        <v>152888.04999999999</v>
+      </c>
+      <c r="H94" s="4">
+        <v>35511.599999999999</v>
+      </c>
+      <c r="I94" s="4">
+        <v>304698.84999999998</v>
+      </c>
+      <c r="J94" s="4">
+        <v>70033.2</v>
+      </c>
+      <c r="K94" s="4">
+        <v>609185.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="B98" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K98" s="10"/>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="B99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100">
+        <v>34.756043593687203</v>
+      </c>
+      <c r="C100">
+        <v>225.69982532621501</v>
+      </c>
+      <c r="D100">
+        <v>33.939089544942703</v>
+      </c>
+      <c r="E100">
+        <v>226.09481354622699</v>
+      </c>
+      <c r="F100">
+        <v>33.955721925684003</v>
+      </c>
+      <c r="G100">
+        <v>226.107219365612</v>
+      </c>
+      <c r="H100">
+        <v>34.147880585843701</v>
+      </c>
+      <c r="I100">
+        <v>226.34455014494699</v>
+      </c>
+      <c r="J100">
+        <v>34.027539381757201</v>
+      </c>
+      <c r="K100">
+        <v>228.28211062205801</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="5">
+        <v>13324315.6142857</v>
+      </c>
+      <c r="C101" s="5">
+        <v>13922717.968214599</v>
+      </c>
+      <c r="D101" s="5">
+        <v>13332630.5357146</v>
+      </c>
+      <c r="E101" s="5">
+        <v>14404360.277715201</v>
+      </c>
+      <c r="F101" s="5">
+        <v>13365180.7571445</v>
+      </c>
+      <c r="G101" s="5">
+        <v>14411351.135786301</v>
+      </c>
+      <c r="H101" s="5">
+        <v>13489195.114292501</v>
+      </c>
+      <c r="I101" s="5">
+        <v>14452870.021501601</v>
+      </c>
+      <c r="J101" s="5">
+        <v>13922689.3928825</v>
+      </c>
+      <c r="K101" s="5">
+        <v>14466938.399999799</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>3489821.5544100399</v>
+      </c>
+      <c r="C102">
+        <v>3494409.73003753</v>
+      </c>
+      <c r="D102">
+        <v>6978393.50873008</v>
+      </c>
+      <c r="E102">
+        <v>6989328.0942313196</v>
+      </c>
+      <c r="F102" s="5">
+        <v>13956824.205000101</v>
+      </c>
+      <c r="G102" s="5">
+        <v>13986969.1879152</v>
+      </c>
+      <c r="H102" s="5">
+        <v>27918653.6004203</v>
+      </c>
+      <c r="I102" s="5">
+        <v>27975115.389339101</v>
+      </c>
+      <c r="J102" s="5">
+        <v>55841476.837220699</v>
+      </c>
+      <c r="K102" s="5">
+        <v>55953462.567924596</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103">
+        <v>1073242.8091899999</v>
+      </c>
+      <c r="C103">
+        <v>834332.99999999802</v>
+      </c>
+      <c r="D103">
+        <v>2146257.3189449999</v>
+      </c>
+      <c r="E103">
+        <v>1668665.99999999</v>
+      </c>
+      <c r="F103">
+        <v>4292730.9844750203</v>
+      </c>
+      <c r="G103">
+        <v>3337331.9999999902</v>
+      </c>
+      <c r="H103">
+        <v>8585408.1811250299</v>
+      </c>
+      <c r="I103">
+        <v>6674663.9999999898</v>
+      </c>
+      <c r="J103" s="5">
+        <v>17170268.921720002</v>
+      </c>
+      <c r="K103" s="5">
+        <v>13349327.999999899</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104">
+        <v>693</v>
+      </c>
+      <c r="C104">
+        <v>998</v>
+      </c>
+      <c r="D104">
+        <v>1932</v>
+      </c>
+      <c r="E104">
+        <v>2815</v>
+      </c>
+      <c r="F104">
+        <v>5203</v>
+      </c>
+      <c r="G104">
+        <v>8366</v>
+      </c>
+      <c r="H104">
+        <v>16921</v>
+      </c>
+      <c r="I104">
+        <v>26880</v>
+      </c>
+      <c r="J104">
+        <v>68499</v>
+      </c>
+      <c r="K104">
+        <v>95695</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105">
+        <v>6671.9</v>
+      </c>
+      <c r="C105">
+        <v>76419.25</v>
+      </c>
+      <c r="D105">
+        <v>21116</v>
+      </c>
+      <c r="E105">
+        <v>152532.6</v>
+      </c>
+      <c r="F105">
+        <v>73023</v>
+      </c>
+      <c r="G105">
+        <v>305186.40000000002</v>
+      </c>
+      <c r="H105">
+        <v>264211.25</v>
+      </c>
+      <c r="I105">
+        <v>609462.69999999995</v>
+      </c>
+      <c r="J105">
+        <v>922861</v>
+      </c>
+      <c r="K105">
+        <v>1217198</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
+  <mergeCells count="48">
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="B86:K86"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="B63:K63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
